--- a/Concentrado Prueba2.xlsx
+++ b/Concentrado Prueba2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jor98\OneDrive\Documentos Personales\Utilerias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D4C2BA-A048-4C5A-9B41-87707C69825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2989B-DE85-4590-9FC8-A90F8E1C31F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{027D72FD-15EF-43E1-9864-28D2D04600CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{027D72FD-15EF-43E1-9864-28D2D04600CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+      <selection pane="topRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,37 +654,37 @@
         <v>1</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>5</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>44411</v>
